--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117829.467727758</v>
+        <v>1146673.778482486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84415.69581393592</v>
+        <v>113941.7723738522</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8525943.296211554</v>
+        <v>8525943.296211552</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.08435412546849</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>149.5488671736146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.38121412114417</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903419</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.3224055697218</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>131.5077074825222</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984493</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.37682225755695</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903408</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>158.9897392454101</v>
+        <v>408.8742649987729</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.47555601903419</v>
+        <v>9.275596830496966</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -1370,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>195.0028451882427</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>4.55385834063818</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825093</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>28.89264992377445</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>156.2386663830962</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.4805812731083</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H16" t="n">
-        <v>50.09791697323112</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>74.08031997323648</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>340.0335258520445</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2005,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.10637266807434</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>197.0830042719517</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>26.94389492651113</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>55.84003136202668</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>296.7607853996629</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>249.4237682275167</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>40.98137063113187</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>101.7177065691257</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W26" t="n">
-        <v>50.53142284290178</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>36.72126511066996</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>237.9332843063849</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>149.6058004679902</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>223.1498336210773</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>94.63926978364054</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>199.338880197829</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2984374366811</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>50.43151777216852</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>6.249307394274627</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>30.95117253761801</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.915442650592</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10.52953044794799</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>120.037679337649</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.6937519238254</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15.54661975984464</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>230.5462234639521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>351.2391879744746</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>60.38235645081242</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>330.0241050340301</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>174.7261000887451</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>56.881969878158</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>89.30725745073134</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.315630222944</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
@@ -4343,7 +4345,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4364,16 +4366,16 @@
         <v>2478.514423990286</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990286</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.454962198756</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.454962198756</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.315630222944</v>
+        <v>1794.682881376601</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,19 +4415,19 @@
         <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4440,7 +4442,7 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
         <v>1826.56246793584</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>288.8387344486669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>288.8387344486669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
         <v>237.8190324477911</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064347</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610026</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.3714747656866</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4580,7 +4582,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2333.106845698723</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2079.345060336814</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2079.345060336814</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1726.5764050667</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1353.11064680562</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y5" t="n">
-        <v>962.9713148298083</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
         <v>237.8190324477911</v>
@@ -4735,40 +4737,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5386780278495</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>214.5386780278495</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D8" t="n">
-        <v>214.5386780278495</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E8" t="n">
-        <v>214.5386780278495</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="F8" t="n">
-        <v>214.5386780278495</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942548</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328863</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>991.277850067783</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919713</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4914,16 +4916,16 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124033</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>978.1437682647415</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>609.1812513243299</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>250.9155527175794</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036448</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036448</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5054,37 +5056,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332394</v>
+        <v>2637.52054463898</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304457</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942548</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V11" t="n">
-        <v>1717.512263598977</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.743608328863</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.743608328863</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.743608328863</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170843</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359573</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747061</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692506</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961356</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424017</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673436</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.063382757265</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504895</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>286.5323736931994</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F13" t="n">
-        <v>286.5323736931994</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G13" t="n">
-        <v>286.5323736931994</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>128.7840011257295</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>286.5323736931994</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447096</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447096</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>750.1700033293578</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>332.2061952275446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5291,7 +5293,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
         <v>2544.691559791253</v>
@@ -5315,13 +5317,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487029</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5348,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G16" t="n">
-        <v>286.5323736931991</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245974</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y16" t="n">
-        <v>286.5323736931991</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C17" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036431</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5528,7 +5530,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
         <v>2544.691559791253</v>
@@ -5540,25 +5542,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2622.320484984651</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304456</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="U17" t="n">
-        <v>2302.336936304456</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V17" t="n">
-        <v>2302.336936304456</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W17" t="n">
-        <v>1949.568281034342</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X17" t="n">
-        <v>1606.100073102984</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y17" t="n">
-        <v>1215.960741127172</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598712</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5625,19 +5627,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.6519168570177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>252.6519168570177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>102.535277444682</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
         <v>237.8190324477911</v>
@@ -5683,40 +5685,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064347</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005478</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>252.6519168570177</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979.48636361053</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>1780.41262192169</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5786,16 +5788,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X20" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y20" t="n">
-        <v>2366.086203674652</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2191.96288889382</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C22" t="n">
-        <v>2191.96288889382</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D22" t="n">
-        <v>2191.96288889382</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="E22" t="n">
-        <v>2191.96288889382</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="F22" t="n">
-        <v>2191.96288889382</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="G22" t="n">
         <v>2022.963088632153</v>
@@ -5944,16 +5946,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V22" t="n">
-        <v>2640.745018935368</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W22" t="n">
-        <v>2640.745018935368</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X22" t="n">
-        <v>2412.755468037351</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y22" t="n">
-        <v>2191.96288889382</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.606050724286</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
-        <v>1689.643533783874</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1331.377835177124</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E23" t="n">
-        <v>945.5895825788796</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>353.7013509109331</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733129</v>
@@ -6002,7 +6004,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
         <v>2544.691559791253</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2445.205890788408</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>2445.205890788408</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6059,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6069,19 +6071,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044453</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C25" t="n">
-        <v>2294.708047044453</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D25" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2191.962888893821</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018223</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018223</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874693</v>
+        <v>245.4549451025304</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1108.365917331524</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>739.4034003911122</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6224,19 +6226,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6253,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>1936.146930626914</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="W26" t="n">
-        <v>1885.105089371457</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X26" t="n">
-        <v>1885.105089371457</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y26" t="n">
-        <v>1494.965757395646</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2478.408439207508</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>2478.408439207508</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>2328.291799795173</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2328.291799795173</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>2328.291799795173</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
         <v>2022.963088632153</v>
@@ -6403,31 +6405,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S28" t="n">
-        <v>2660.056904037748</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T28" t="n">
-        <v>2660.056904037748</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="U28" t="n">
-        <v>2660.056904037748</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V28" t="n">
-        <v>2660.056904037748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W28" t="n">
-        <v>2660.056904037748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>2660.056904037748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>2660.056904037748</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1778.063616086467</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C29" t="n">
-        <v>1778.063616086467</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D29" t="n">
-        <v>1419.797917479716</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>1034.009664881472</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>623.0237600918647</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>205.0599519900516</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>205.0599519900516</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2168.202948062279</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2168.202948062279</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1778.063616086467</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036446</v>
@@ -6546,19 +6548,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6654,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y31" t="n">
         <v>53.94298182036446</v>
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1369.416431066818</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C32" t="n">
-        <v>1000.453914126406</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D32" t="n">
-        <v>1000.453914126406</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224076</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312744</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X32" t="n">
-        <v>1759.555763042629</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1369.416431066818</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2073.904015674748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2073.904015674748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2073.904015674748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2073.904015674748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2073.904015674748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836386</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504988</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U34" t="n">
-        <v>2255.552480504988</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>2255.552480504988</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>2255.552480504988</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>2255.552480504988</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2255.552480504988</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1284.970060705655</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>1284.970060705655</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D35" t="n">
-        <v>926.7043620989048</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>540.9161095006605</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.575150942547</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W35" t="n">
-        <v>2048.575150942547</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X35" t="n">
-        <v>1675.109392681467</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y35" t="n">
-        <v>1284.970060705655</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694736</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.8693068625894</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9067899221776</v>
+        <v>962.0987983716311</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>603.8330997648807</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>218.0448471666364</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312743</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W38" t="n">
-        <v>1991.074237163603</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X38" t="n">
-        <v>1617.608478902523</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y38" t="n">
-        <v>1227.469146926711</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>368.8844281164663</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>773.5003462121382</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="C40" t="n">
-        <v>2328.624554782016</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="D40" t="n">
-        <v>2328.624554782016</v>
+        <v>2332.74402842405</v>
       </c>
       <c r="E40" t="n">
-        <v>2180.711461199623</v>
+        <v>2332.74402842405</v>
       </c>
       <c r="F40" t="n">
-        <v>2180.711461199623</v>
+        <v>2332.74402842405</v>
       </c>
       <c r="G40" t="n">
-        <v>2180.711461199623</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="T40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="U40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="V40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="W40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="X40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="Y40" t="n">
-        <v>2482.860667836385</v>
+        <v>2482.860667836386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1606.02060534945</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1237.058088409038</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.183115213127</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E41" t="n">
-        <v>618.3948626148824</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>408.7300403804399</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1992.620445413571</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1992.620445413571</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7506,31 +7508,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>2547.032451605886</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>2547.032451605886</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>2486.040172362641</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1695.806495672433</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C44" t="n">
-        <v>1695.806495672433</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.540797065682</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>951.7525444674379</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>540.7666396778304</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V44" t="n">
-        <v>2048.575150942547</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.806495672433</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.806495672433</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="Y44" t="n">
-        <v>1695.806495672433</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.3995170508271</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="X46" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="Y46" t="n">
-        <v>293.0479818810668</v>
+        <v>438.9553738610026</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>449.9848248155292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9243,7 +9245,7 @@
         <v>50.07369958270189</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3707964059377</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.8460159467933</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>199.6921015437984</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22710,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.03983390178708</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22723,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229435</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>219.4114360937588</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,10 +22801,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>84.94061287513557</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>148.8699988410709</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22951,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>254.7944307753849</v>
+        <v>4.909905022022087</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>80.49006577330404</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>186.927524884019</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>169.8618544683333</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>106.0729718685638</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23498,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>198.4443752375868</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>48.44219149124882</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H16" t="n">
-        <v>106.072971868564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>100.335392835735</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>29.6975748264245</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>98.32758997849484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23944,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>168.1898874990559</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>379.9321508152003</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.52911452950141</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24184,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>196.2976119618013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>117.0233846211321</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>120.3073324509523</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.8506095508054</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>43.70334145380552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
@@ -24421,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24491,22 +24493,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W26" t="n">
-        <v>298.7095458745112</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24643,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>175.4242738393489</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>116.7497573142981</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>2.325515776871015</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>63.13204062090043</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>123.9453835684542</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>182.5914898744328</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>78.93950121937252</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>116.8782844868824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25123,19 +25125,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>400.6267383474368</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>355.2867661184356</v>
       </c>
     </row>
     <row r="36">
@@ -25315,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>131.7000303676203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>396.3465152937634</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.203289379764</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.55306917480246</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>151.7631824992063</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>124.1368181567308</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>62.54498204632034</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,7 +25687,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>85.03869157211884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>83.76006498676492</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>211.5118385673085</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.3648512204698</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>59.30821556748101</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="E2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149698</v>
@@ -26329,31 +26331,31 @@
         <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="I2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="C4" t="n">
         <v>513.1084990597036</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="E4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="F4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="G4" t="n">
         <v>513.1084990597037</v>
-      </c>
-      <c r="D4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="E4" t="n">
-        <v>513.1084990597038</v>
-      </c>
-      <c r="F4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="G4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597036</v>
@@ -26445,19 +26447,19 @@
         <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="M4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="M4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340948</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.086262044</v>
+        <v>-398645.0862620441</v>
       </c>
       <c r="C6" t="n">
         <v>191322.7929525006</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525006</v>
+        <v>191322.7929525005</v>
       </c>
       <c r="E6" t="n">
         <v>224950.3929525006</v>
@@ -26537,31 +26539,31 @@
         <v>224950.3929525007</v>
       </c>
       <c r="H6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="I6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="J6" t="n">
-        <v>48527.17375990769</v>
+        <v>48527.17375990742</v>
       </c>
       <c r="K6" t="n">
+        <v>224950.3929525006</v>
+      </c>
+      <c r="L6" t="n">
         <v>224950.3929525005</v>
       </c>
-      <c r="L6" t="n">
-        <v>224950.3929525008</v>
-      </c>
       <c r="M6" t="n">
-        <v>224950.3929525008</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="N6" t="n">
-        <v>224950.3929525007</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="P6" t="n">
-        <v>224950.3929525005</v>
+        <v>224950.3929525006</v>
       </c>
     </row>
   </sheetData>
@@ -26738,25 +26740,25 @@
         <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170867</v>
@@ -26768,16 +26770,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31142,7 +31144,7 @@
         <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31279,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31294,28 +31296,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472037</v>
@@ -31355,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
         <v>76.7639270839648</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31439,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,19 +31457,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478009</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,10 +31992,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32002,34 +32004,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32166,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,10 +32229,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32242,28 +32244,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472037</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
         <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>87.783293824239</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478008</v>
@@ -32324,7 +32326,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923048</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,16 +32387,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32403,19 +32405,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32488,7 +32490,7 @@
         <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954663</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044138</v>
@@ -32704,7 +32706,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32713,34 +32715,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
@@ -32819,7 +32821,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33038,7 +33040,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479578</v>
@@ -33266,7 +33268,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33281,7 +33283,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034983</v>
@@ -33503,7 +33505,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34360,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34536,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262939</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34942,7 +34944,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492238</v>
@@ -34951,7 +34953,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.997506289869</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713858</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M12" t="n">
-        <v>513.7210878918232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35817,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492238</v>
@@ -35899,7 +35901,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.997506289869</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624586</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713858</v>
@@ -35972,10 +35974,10 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
@@ -36042,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q20" t="n">
         <v>153.997506289869</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031299</v>
@@ -36215,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36452,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36528,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735647</v>
@@ -36914,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.29709682323572</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38187,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095354.117138119</v>
+        <v>1141049.386191716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40317.5018043414</v>
+        <v>9998.071962323498</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>79.09547483958396</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>83.6962058656255</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.2570633735997</v>
       </c>
       <c r="G4" t="n">
-        <v>10.46499054460243</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>93.4825844247318</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>89.56099441449111</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>29.41204342723559</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>64.99586874835488</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>79.7859894428951</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>255.0430441290947</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>90.73779827449012</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>79.7859894428951</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>56.49576810820431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>131.4310010791928</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>269.7221528816377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.77936158462986</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>62.95369569505531</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>323.2180416857421</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>151.0108140474365</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.75656432199312</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>74.08031997323604</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.468524200619665</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>333.9662614590263</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I25" t="n">
-        <v>70.80276983270114</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>314.1469153028793</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>52.63777911719641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>65.0588499087778</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>9.790440613649746</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>21.50155627922708</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>262.98102090663</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>15.90252802695418</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>90.7944658248523</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.9672255833421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>122.3623168480191</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228962</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.34004921506748</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>230.1411690409422</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>240.6235099003704</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>39.51885255793369</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480849</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>70.11928264603833</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>155.4526127311946</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982973</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>89.61483857732533</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017904</v>
+        <v>155.8860385675341</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
         <v>1268.68094731003</v>
@@ -4321,61 +4321,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2612.607468931732</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2612.607468931732</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2358.845683569823</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2027.782796226253</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2027.782796226253</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.782796226253</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2180.423733649864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>2180.423733649864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D4" t="n">
-        <v>2180.423733649864</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="E4" t="n">
-        <v>2180.423733649864</v>
+        <v>175.4147630058187</v>
       </c>
       <c r="F4" t="n">
-        <v>2033.533786151953</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2469.840903686824</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>2180.423733649864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>2180.423733649864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>2180.423733649864</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.58524627281</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>977.3195476660596</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>977.3195476660596</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>566.3336428764521</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>148.369834774639</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>2551.654750624988</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312744</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312744</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336932</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036446</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>662.4765915313284</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>662.4765915313284</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4765915313284</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>373.0594214943678</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>373.0594214943678</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116.950579244872</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="D8" t="n">
         <v>1036.358670716696</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.550419308994</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1036.358670716696</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.358670716696</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5074,19 +5074,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="W11" t="n">
-        <v>1893.689751284806</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.097842756629</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y11" t="n">
-        <v>1422.958510780817</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>365.6939024587809</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>111.0094142528941</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1251.855211652197</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="C14" t="n">
-        <v>882.8926947117852</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>990.4536294691015</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>604.6653768708572</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1994.763198898123</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W14" t="n">
-        <v>1641.994543628009</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X14" t="n">
-        <v>1641.994543628009</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="Y14" t="n">
-        <v>1251.855211652197</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C16" t="n">
-        <v>257.0633493392339</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
         <v>222.942782082032</v>
@@ -5427,61 +5427,61 @@
         <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X17" t="n">
-        <v>2017.897565358469</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1627.758233382657</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V19" t="n">
-        <v>246.1363086691491</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
         <v>1268.68094731003</v>
@@ -5743,22 +5743,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5773,31 +5773,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2057.295728843237</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>1704.527073573123</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>1331.061315312043</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y20" t="n">
-        <v>1331.061315312043</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5980,61 +5980,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
         <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940986</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117055</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>283.2093037137951</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>283.2093037137951</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H25" t="n">
-        <v>125.4609311463252</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1536.177557778964</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C26" t="n">
-        <v>1536.177557778964</v>
+        <v>1116.42162635373</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.911859172214</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>2312.916729818898</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X26" t="n">
-        <v>2312.916729818898</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y26" t="n">
-        <v>1922.777397843086</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C28" t="n">
-        <v>269.7756312415667</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>119.6589918292309</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>119.6589918292309</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1130.084661047915</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>761.1221441075031</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>402.8564455007526</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>402.8564455007526</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>402.8564455007526</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>402.8564455007526</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>75.66172553675545</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2045.420119349963</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1130.084661047915</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1637.643464250441</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
         <v>882.8926947117852</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.243304314563</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6779,43 +6779,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551155</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785541</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889465</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781332</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036447</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036447</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785541</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889465</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781332</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036447</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036447</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247704</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307292</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307292</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090477</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548717</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548717</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287637</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311825</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036448</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036448</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036448</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036448</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036448</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610026</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610026</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247704</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1215.711691956352</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>857.4459933496012</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>471.6577407513569</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>471.6577407513569</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.84331964269</v>
@@ -7669,31 +7669,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548717</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548717</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548717</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548717</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548717</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287637</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311825</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.063382757265</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414848</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435192</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.317569050021</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064347</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V46" t="n">
         <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>303.6383668238966</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.71950694334603</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22710,16 +22710,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.16398464933154</v>
       </c>
       <c r="G4" t="n">
-        <v>156.8448117144485</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>230.4401883396254</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,13 +22840,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>238.1912640556438</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22947,13 +22947,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>116.0090045956957</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>160.0392367097294</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>285.4869023281125</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>99.6399974915883</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,13 +23077,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>237.0144601956448</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>289.9451112355739</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>40.32635200869768</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>230.0272302283867</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.4450446625186</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>58.03010558849724</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8361114335825</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>223.3281785469224</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>46.51305899272694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>235.2271246086171</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>38.28517746264748</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23943,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.9772773414875</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.650780705233</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.2653174628609</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>15.27470725838668</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I25" t="n">
-        <v>64.16285195963708</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>40.53612631780368</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>296.6031896002166</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>91.11203893301735</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>208.7942127384451</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>130.4297599656342</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>86.25994781078305</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.9294521549831</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>274.4784259461553</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>89.78322210199975</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789882</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,13 +25329,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>58.83083962672767</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>135.1317227300653</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789882</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401873</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>11.51413342345765</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>325.7540392130738</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727101</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.30176537689292</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491426</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>131.0703856053964</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727102</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>324.1693314434697</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448612</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491426</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26076,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401873</v>
+        <v>130.3958356744436</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
@@ -26325,37 +26325,37 @@
         <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="G2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="O2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26450,16 +26450,16 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="N4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="O4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="P4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="N4" t="n">
-        <v>513.1084990597036</v>
-      </c>
-      <c r="O4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="P4" t="n">
-        <v>513.1084990597037</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404713.5000078631</v>
+        <v>-399251.9276366259</v>
       </c>
       <c r="C6" t="n">
-        <v>185254.3792066814</v>
+        <v>190715.9515779188</v>
       </c>
       <c r="D6" t="n">
-        <v>185254.3792066814</v>
+        <v>190715.9515779186</v>
       </c>
       <c r="E6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="F6" t="n">
-        <v>218881.9792066816</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="G6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="H6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="I6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="J6" t="n">
-        <v>42458.7600140884</v>
+        <v>47920.33238532576</v>
       </c>
       <c r="K6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779186</v>
       </c>
       <c r="L6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="M6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="N6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779189</v>
       </c>
       <c r="O6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="P6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="N3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="O3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="P3" t="n">
         <v>377.7436642170868</v>
-      </c>
-      <c r="N3" t="n">
-        <v>377.7436642170869</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170869</v>
-      </c>
-      <c r="P3" t="n">
-        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31758,22 +31758,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
         <v>255.8615389119866</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31852,28 +31852,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,43 +31995,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -33262,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,43 +33654,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
         <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472037</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396482</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649103</v>
@@ -34459,7 +34459,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923048</v>
@@ -34468,19 +34468,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813581</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M46" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N43" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.997506289869</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770696</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031299</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N46" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
